--- a/public/examples/DEMO.xlsx
+++ b/public/examples/DEMO.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akosiak/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0E886F-3451-7E4F-8774-CD5F980FFB0F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A8AE65-E2F7-594D-A850-FAAEC296A50C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{A57179F4-7982-274E-84CE-C6A538149222}"/>
+    <workbookView xWindow="1600" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{A57179F4-7982-274E-84CE-C6A538149222}"/>
   </bookViews>
   <sheets>
     <sheet name="Italian" sheetId="1" r:id="rId1"/>
     <sheet name="Ukrainian" sheetId="2" r:id="rId2"/>
     <sheet name="French" sheetId="3" r:id="rId3"/>
     <sheet name="Arabic" sheetId="4" r:id="rId4"/>
+    <sheet name="Hebrew" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="193">
   <si>
     <t>Full Portfolio</t>
   </si>
@@ -526,6 +527,87 @@
   </si>
   <si>
     <t>المنظفات &amp; مرطب</t>
+  </si>
+  <si>
+    <t>תיק מלא</t>
+  </si>
+  <si>
+    <t>עור בעל נטייה לפיתוח אקנה</t>
+  </si>
+  <si>
+    <t>אֶקזֵמָה</t>
+  </si>
+  <si>
+    <t>אמין יותר על ידי רופאי עור יותר מכל מותג אחר</t>
+  </si>
+  <si>
+    <t>חלק חשוב של משטר טיפול בעור - מסייע לשפר את תוצאות הטיפול</t>
+  </si>
+  <si>
+    <t>אידיאלי למגוון רחב של סוגי עור ותנאים</t>
+  </si>
+  <si>
+    <t>Non-irritating ויעיל נוסחאות שנוצרו במיוחד עבור רגיל רגיש העור</t>
+  </si>
+  <si>
+    <t>הוכח כדי לסייע לשמור על העור hydrated ולשמור על הבריאות של מחסום העור</t>
+  </si>
+  <si>
+    <t>חומרי ניקוי וחומרי ניקוי</t>
+  </si>
+  <si>
+    <t>קצף לשטוף &lt;br/&gt; ו לחות SPF 30</t>
+  </si>
+  <si>
+    <t>גוף לשטוף &lt;br/&gt; ו לחות</t>
+  </si>
+  <si>
+    <t>הפניות</t>
+  </si>
+  <si>
+    <t>שינויים בשכבת הקרנית יכולים להשפיע על תפקוד מחסום העור באקזמה ובאטופיק דרמטיטיס</t>
+  </si>
+  <si>
+    <t>חלק מהחולים אטופיק חוסר filaggrin, חלבון חיוני לשמירה על לחות העור</t>
+  </si>
+  <si>
+    <t>הרכב השומנים הוא חיוני למניעת אובדן מים אפידרמיס (TEWL)</t>
+  </si>
+  <si>
+    <t>מוצרים - מנוסחת במיוחד עבור אקזמה ו אטופיק דרמטיטיס</t>
+  </si>
+  <si>
+    <t>משטר ראשון ורק עם טכנולוגיה מתקדמת Ceramide ו Filaggrin</t>
+  </si>
+  <si>
+    <t>ללא ריח, היפואלרגני</t>
+  </si>
+  <si>
+    <t>דלקות, ייצור יתר של חלב ותופעות לוואי לטיפול יכולות לתרום לשיבוש מחסום בחולי אקנה</t>
+  </si>
+  <si>
+    <t>מוצרים - ניסח במיוחד עבור העור נוטה אקנה</t>
+  </si>
+  <si>
+    <t>מכיל טכנולוגיה ייחודית של Zinc ו- Oleosome ™</t>
+  </si>
+  <si>
+    <t>קלינית למדתי לשמש בשילוב עם טיפולי אקנה מרשם - מסייע למזער תופעות לוואי הטיפול ולשפר את התוצאות</t>
+  </si>
+  <si>
+    <t>ניקוי &amp; קרם לחות</t>
+  </si>
+  <si>
+    <t>#1 דרמטולוג ופדיאטרייאן המליצו על מותג של חומרי ניקוי וקרם לחות</t>
+  </si>
+  <si>
+    <t>הוכח קלינית כדי לשפר את תוצאות הטיפול - ירידה מהירה יותר ציוני EASI כאשר&lt;br/&gt;נעשה שימוש עם סטרואידים מקומיים לעומת קורטיקוסטרואידים מקומיים בלבד</t>
+  </si>
+  <si>
+    <t>פתרונות מוכחים מדעית&lt;br/&gt;לשיפור בריאות העור</t>
+  </si>
+  <si>
+    <t>מחויבות למדע - נערכו למעלה מ -100 ניסויים קליניים במוצרי Cetaphil&lt;sup&gt;®&lt;/sup&gt;</t>
   </si>
 </sst>
 </file>
@@ -581,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -595,6 +677,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,7 +1007,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1253,7 +1347,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1687,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1932,15 +2026,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E3FE83-27C4-D649-93CF-DB7794A4C41D}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="65.83203125" customWidth="1"/>
+    <col min="3" max="3" width="65.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -1961,7 +2055,7 @@
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1972,7 +2066,7 @@
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1983,7 +2077,7 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1994,7 +2088,7 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2005,7 +2099,7 @@
       <c r="B6" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2016,7 +2110,7 @@
       <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2027,7 +2121,7 @@
       <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2038,7 +2132,7 @@
       <c r="B9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2049,7 +2143,7 @@
       <c r="B10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2060,7 +2154,7 @@
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2071,7 +2165,7 @@
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2082,7 +2176,7 @@
       <c r="B13" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2093,7 +2187,7 @@
       <c r="B14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2104,7 +2198,7 @@
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2115,7 +2209,7 @@
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2126,7 +2220,7 @@
       <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2137,7 +2231,7 @@
       <c r="B18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2148,7 +2242,7 @@
       <c r="B19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2159,7 +2253,7 @@
       <c r="B20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2170,7 +2264,7 @@
       <c r="B21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2181,7 +2275,7 @@
       <c r="B22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2192,7 +2286,7 @@
       <c r="B23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2203,7 +2297,7 @@
       <c r="B24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2214,7 +2308,7 @@
       <c r="B25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2225,7 +2319,7 @@
       <c r="B26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2236,7 +2330,7 @@
       <c r="B27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2247,7 +2341,7 @@
       <c r="B28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2258,11 +2352,351 @@
       <c r="B29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDCD5F4-E531-F14E-9DFB-2E667896DD2C}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="63.1640625" customWidth="1"/>
+    <col min="3" max="3" width="73.6640625" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>